--- a/scientists-given-prior-for-the-website_new.xlsx
+++ b/scientists-given-prior-for-the-website_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\Git\DA-Code_Femiaculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4760C183-2120-47A8-A815-03920EFB2F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA28A5-30FF-40EE-81CD-600ADDAE540C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92014F9E-F35E-424B-B676-9B4C8F84CE71}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>Description</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Education_investment</t>
   </si>
   <si>
-    <t>postnorm</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -182,27 +179,15 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Best not t make this adjustabel - assume 3 months so that we can add better esitmates - possibly part of the discussion to talk about longer investments</t>
-  </si>
-  <si>
-    <t>Our general notes</t>
-  </si>
-  <si>
     <t>Monthly personal investment costs of education or training (travel, books, child care, farm help, etc.) for a farm woman in a low or middle-income country. This is for a three month training, in the case that she has access to and chooses to take part in education opportunities.*</t>
   </si>
   <si>
-    <t>if Education_investment then Economy_investment assuming she puts the training to use</t>
-  </si>
-  <si>
     <t xml:space="preserve">General monthly investment costs into personal economic development like a credit, a paid job opportunity, additional income, and others, after Education_investment. The investment includes every monthly expense that leads to her being able to take part in development opportunities (e.g. transport, child care costs).* </t>
   </si>
   <si>
     <t>Expected monthly monetary gain after Education_investment and Economy_investment. Within this model, they always receive money over nine months.</t>
   </si>
   <si>
-    <t>she pays more because she has more access and it is expected that she will get more returns</t>
-  </si>
-  <si>
     <t>Monthly monetary gain from SQ_Resources_investment (e.g. selling eggs, milk, processed foods, fish, tree products, etc.). It is the monthly payout of the resource investment a farm woman can expect while not changing her status quo. Within this model, they always receive money over nine months.</t>
   </si>
   <si>
@@ -213,18 +198,6 @@
   </si>
   <si>
     <t xml:space="preserve">Proportion of monthly costs for three months of food and health care (e.g. treatment for diabetes) that allow a farm woman to take part in work on the farm. For a farm woman in the empowerment scenario.* </t>
-  </si>
-  <si>
-    <t>too poor to get a good treatment</t>
-  </si>
-  <si>
-    <t>she may invest in a more expensive treatment / nutrition / food (should be similar to the non empowerment condition)</t>
-  </si>
-  <si>
-    <t>because she can get some nice food and medicine it increases the value of Empowerment_Resources_payout a lot (i.e. less kids, much better health etc.)</t>
-  </si>
-  <si>
-    <t>I think we are talking about very low income / poor 'smallholder farmers' or rural famrers? because middle income farm women can also have access etc. I think this is really about poor and smallholder farm women</t>
   </si>
   <si>
     <t xml:space="preserve">Monthly investments a farm woman could receive from her husband (e.g. for contraceptives or doctor's visits). For a farm woman in a status quo scenario.*
@@ -237,24 +210,12 @@
     <t>Monthly investments a farm woman could receive from her husband (e.g. for contraceptives or doctor's visits). For a farm woman in an empowerment scenario.*She has more money and resources than in the status quo pathway. Since she has more own money, her husband might invest less into the "workforce." The investment phase always is three months long.</t>
   </si>
   <si>
-    <t>define the variable (coef var. in maths terms)</t>
-  </si>
-  <si>
     <t>Discout rate (constant, no range should be set). The discount rate can indicate the decision maker's willingness to invest in long-term outcomes.</t>
   </si>
   <si>
-    <t>define the variable (discount in maths terms)</t>
-  </si>
-  <si>
-    <t>Best not t make this adjustabel - assume 9 months so that we can add better esitmates - possibly part of the discussion to talk about longer payoffs</t>
-  </si>
-  <si>
     <t>Level of risk of unsafe conditions that end the empowerment and stop the intervention (e.g. intimate partner violence) for women in the empowerment condition.</t>
   </si>
   <si>
-    <t>even 0.05 seems quite high. Gice this a good variable name to describe what it does</t>
-  </si>
-  <si>
     <t>Monthly agricultural (including (agro-)forestry, fishery, horticulture) resource investment costs for the three month investment (chickens, farm technology, seeds, fishing equipment, etc.). This is for a farm woman in a low or middle-income country and in the status quo condition of living from farm resources without empowerment investments.</t>
   </si>
   <si>
@@ -265,13 +226,16 @@
   </si>
   <si>
     <t>Coefficient of variation (constant value, no range should be set) is the ratio of the standard deviation to the mean. This value is used for generating time series that include variation.</t>
+  </si>
+  <si>
+    <t>lnorm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +254,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -327,6 +297,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -643,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D009A66-3A3D-4DE3-B90D-7C6F953DE9E4}">
   <dimension ref="A1:XFA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,13 +654,10 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -695,65 +666,59 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>300</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>80</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>800</v>
@@ -761,22 +726,22 @@
     </row>
     <row r="5" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -784,22 +749,22 @@
     </row>
     <row r="6" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -807,48 +772,45 @@
     </row>
     <row r="7" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>400</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -856,48 +818,45 @@
     </row>
     <row r="9" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -3245,71 +3204,68 @@
     </row>
     <row r="11" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>40</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>800</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
       </c>
       <c r="E13">
         <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
       </c>
       <c r="G13">
         <v>100</v>
@@ -3317,19 +3273,22 @@
     </row>
     <row r="14" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>0.1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -3337,147 +3296,132 @@
     </row>
     <row r="15" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>1</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4">
-        <v>9</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>70</v>
+      <c r="G18" s="6">
+        <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0.05</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>0.05</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
   </sheetData>
